--- a/7-P5/暂停转发表.xlsx
+++ b/7-P5/暂停转发表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - buaa.edu.cn\Curriculums\二秋-必修-计算机组成\Computer-Organization-BUAA-2020\7-P5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buaaeducn-my.sharepoint.com/personal/wysj0117_buaa_edu_cn/Documents/Curriculums/二秋-必修-计算机组成/Computer-Organization-BUAA-2020/7-P5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1280919-650C-46E0-AB3D-84D0C80F95F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C1280919-650C-46E0-AB3D-84D0C80F95F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F31E046F-11AA-4CF3-8F77-E7160FF4B478}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Tuse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,14 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>used reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>where to use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +92,46 @@
   </si>
   <si>
     <t>ALU in E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何处使用读出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM in M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要写入的寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,12 +155,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,9 +193,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,144 +493,222 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J4" sqref="J4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/7-P5/暂停转发表.xlsx
+++ b/7-P5/暂停转发表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buaaeducn-my.sharepoint.com/personal/wysj0117_buaa_edu_cn/Documents/Curriculums/二秋-必修-计算机组成/Computer-Organization-BUAA-2020/7-P5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C1280919-650C-46E0-AB3D-84D0C80F95F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F31E046F-11AA-4CF3-8F77-E7160FF4B478}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C1280919-650C-46E0-AB3D-84D0C80F95F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9623001D-8EC2-4A3B-B204-AB4A17775C2D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1570" yWindow="1400" windowWidth="14480" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>Tuse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rs/rt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,30 @@
   </si>
   <si>
     <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过多久写入流水寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过多久要用数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何处得出结果准备存入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +200,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,12 +221,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -208,6 +258,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,234 +549,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.9140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
         <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/7-P5/暂停转发表.xlsx
+++ b/7-P5/暂停转发表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buaaeducn-my.sharepoint.com/personal/wysj0117_buaa_edu_cn/Documents/Curriculums/二秋-必修-计算机组成/Computer-Organization-BUAA-2020/7-P5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - buaa.edu.cn\Curriculums\二秋-必修-计算机组成\Computer-Organization-BUAA-2020\7-P5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C1280919-650C-46E0-AB3D-84D0C80F95F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9623001D-8EC2-4A3B-B204-AB4A17775C2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628C8948-7F75-4F52-B335-AC9F0EE4A21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1570" yWindow="1400" windowWidth="14480" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>Tuse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,22 @@
   </si>
   <si>
     <t>何处得出结果准备存入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuseE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停在D级之前，将D后插入一个nop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停在E级之前，将E级插入一个nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +228,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -240,12 +262,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,14 +294,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -566,202 +602,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E3" s="1" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="2" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E5" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -769,13 +812,13 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -786,102 +829,90 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -889,32 +920,465 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="F15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="3">
+        <v>31</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F1:P1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:N2"/>
+  <mergeCells count="9">
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
